--- a/biology/Médecine/Dichlorométhane_(maladie_professionnelle)/Dichlorométhane_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Dichlorométhane_(maladie_professionnelle)/Dichlorométhane_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dichlorom%C3%A9thane_(maladie_professionnelle)</t>
+          <t>Dichlorométhane_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">une intoxication au dichlorométhane est reconnue comme maladie professionnelle en France sous certaines conditions.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dichlorom%C3%A9thane_(maladie_professionnelle)</t>
+          <t>Dichlorométhane_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -526,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dichlorom%C3%A9thane_(maladie_professionnelle)</t>
+          <t>Dichlorométhane_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,18 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dichlorométhane</t>
+          <t>Législation en  France</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Données professionnelles
-Son caractère volatil et sa capacité à dissoudre une grande panoplie de composés organiques font du dichlorométhane un solvant idéal pour de nombreux procédés chimiques. On s'en sert principalement comme décapant pour la peinture ou comme dégraissant. Dans l'industrie alimentaire, on s'en sert pour décaféiner le café et pour préparer des extraits de divers arômes tels que le houblon. Comme il est volatil, on s'en sert aussi comme propulseur pour les aérosols et comme agent moussant pour obtenir la mousse de polyuréthane. On s'en sert aussi comme pesticide pour stocker les fraises et les céréales. Comme il n'est pas complètement inoffensif pour la santé, on a toutefois cherché des alternatives à la plupart de ses applications.
-Données médicales
-Le dichlorométhane est le moins toxique des chlorohydrocarbones simples mais il n'est quand-même pas sans risques. Le contact prolongé avec la peau peut provoquer des irritations ou des brûlures par dissolution des tissus graisseux.
-Le dichlorométhane est classé en France Cancérigène classe 3, c'est-à-dire substance dont on n'a pas d'indice montrant qu'il pourrait être cancérigène chez l'homme, contrairement à une idée reçue. En effet, il est bien cancérigène chez la souris, mais grâce à un mécanisme spécifique à la souris, nécessitant une protéine absente chez l'homme[1]. À ce jour, aucune étude n'a pu montrer un caractère cancérigène effectif chez l'homme.
-Dans beaucoup de pays, les produits contenant du dichlorométhane doivent porter des étiquettes avertissant de ses dangers pour la santé. Toutefois, on le confond souvent avec l'essence de térébenthine ou le white spirit, qui présente moins de risques notamment pour la peau.
-Phrases de risque et conseils de prudence selon l'INRS
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -563,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dichlorom%C3%A9thane_(maladie_professionnelle)</t>
+          <t>Dichlorométhane_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +595,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Perchloréthylène</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Dichlorométhane</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son caractère volatil et sa capacité à dissoudre une grande panoplie de composés organiques font du dichlorométhane un solvant idéal pour de nombreux procédés chimiques. On s'en sert principalement comme décapant pour la peinture ou comme dégraissant. Dans l'industrie alimentaire, on s'en sert pour décaféiner le café et pour préparer des extraits de divers arômes tels que le houblon. Comme il est volatil, on s'en sert aussi comme propulseur pour les aérosols et comme agent moussant pour obtenir la mousse de polyuréthane. On s'en sert aussi comme pesticide pour stocker les fraises et les céréales. Comme il n'est pas complètement inoffensif pour la santé, on a toutefois cherché des alternatives à la plupart de ses applications.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -589,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dichlorom%C3%A9thane_(maladie_professionnelle)</t>
+          <t>Dichlorométhane_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,16 +632,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Dichlorométhane</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dichlorométhane est le moins toxique des chlorohydrocarbones simples mais il n'est quand-même pas sans risques. Le contact prolongé avec la peau peut provoquer des irritations ou des brûlures par dissolution des tissus graisseux.
+Le dichlorométhane est classé en France Cancérigène classe 3, c'est-à-dire substance dont on n'a pas d'indice montrant qu'il pourrait être cancérigène chez l'homme, contrairement à une idée reçue. En effet, il est bien cancérigène chez la souris, mais grâce à un mécanisme spécifique à la souris, nécessitant une protéine absente chez l'homme. À ce jour, aucune étude n'a pu montrer un caractère cancérigène effectif chez l'homme.
+Dans beaucoup de pays, les produits contenant du dichlorométhane doivent porter des étiquettes avertissant de ses dangers pour la santé. Toutefois, on le confond souvent avec l'essence de térébenthine ou le white spirit, qui présente moins de risques notamment pour la peau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dichlorométhane_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dichlorom%C3%A9thane_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dichlorométhane</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phrases de risque et conseils de prudence selon l'INRS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dichlorométhane_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dichlorom%C3%A9thane_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Perchloréthylène</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dichlorométhane_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dichlorom%C3%A9thane_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En général, le perchloroéthylène est utilisé comme solvant. La plupart des composés organiques se dissolvent dans le perchloroéthylène. Le perchloroéthylène est le solvant le plus couramment utilisé pour le nettoyage à sec. Il sert aussi à dégraisser les pièces métalliques dans les industries automobile et métallurgique. On le trouve également dans quelques produits de consommation comme des solvants pour la peinture ou pour enlever les taches.
 Avant leur interdiction, le perchloroéthylène servait à la fabrication de réfrigérants au fréon.
-Phrases de risque et conseils de prudence selon l'INRS
-Le perchloroéthylène est absorbé par inhalation, par voie orale et par la peau (quand il est sous forme liquide). Il est toxique pour le système nerveux et le rein. L'exposition au tétrachloroéthylène peut causer une irritation des voies respiratoires et des yeux, des vertiges, nausées, maux de tête et pertes de mémoire, une somnolence et cela peut aller jusqu'à la perte de connaissance et la mort.
-Le perchloroéthylène est probablement cancérigène pour l'homme. Des Pays comme le Danemark ou certains états américains notamment la Californie limitent drastiquement son utilisation.  Celle-ci a mis en place une règlementation stricte qui va jusqu'à l'interdiction totale de son utilisation d'ici 2020[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dichlorométhane_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dichlorom%C3%A9thane_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Phrases de risque et conseils de prudence selon l'INRS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le perchloroéthylène est absorbé par inhalation, par voie orale et par la peau (quand il est sous forme liquide). Il est toxique pour le système nerveux et le rein. L'exposition au tétrachloroéthylène peut causer une irritation des voies respiratoires et des yeux, des vertiges, nausées, maux de tête et pertes de mémoire, une somnolence et cela peut aller jusqu'à la perte de connaissance et la mort.
+Le perchloroéthylène est probablement cancérigène pour l'homme. Des Pays comme le Danemark ou certains états américains notamment la Californie limitent drastiquement son utilisation.  Celle-ci a mis en place une règlementation stricte qui va jusqu'à l'interdiction totale de son utilisation d'ici 2020.
 Lors de l'ouverture du hublot d'une machine de nettoyage à sec, les vapeurs de perchloroéthylène s'échappent de la machine. Les personnes travaillant ou habitant au-dessus d'un pressing sont exposées à ces vapeurs.
 Il est recommandé de bien aérer les textiles qui ont été nettoyés à sec. En cas de contact du perchloréthylène avec la peau ou les yeux, rincer à grande eau et consulter un médecin.
 </t>
